--- a/EMMO_Modules-Classes_used_in_CHAMEO.xlsx
+++ b/EMMO_Modules-Classes_used_in_CHAMEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innen\Documents\GitHub\domain-characterisation-methodology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D3A77-6373-43D0-8D20-C580D9C0E87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D30FF9F-2AC8-4E99-9BFD-63CA7295438B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87BFD451-5A5B-4927-893A-381FB733A9D7}"/>
+    <workbookView xWindow="60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{87BFD451-5A5B-4927-893A-381FB733A9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio4" sheetId="4" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="191029" iterateDelta="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId5"/>
-    <pivotCache cacheId="18" r:id="rId6"/>
+    <pivotCache cacheId="19" r:id="rId5"/>
+    <pivotCache cacheId="20" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -894,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -917,8 +917,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1653,7 +1652,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E720320-1D9F-4630-9B8F-A37577A5CC80}" name="Tabella pivot8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E720320-1D9F-4630-9B8F-A37577A5CC80}" name="Tabella pivot8" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -1741,7 +1740,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0252445-F0D3-42D5-9BAE-E42F65E64D36}" name="Tabella pivot6" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0252445-F0D3-42D5-9BAE-E42F65E64D36}" name="Tabella pivot6" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -2221,7 +2220,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2259,10 +2258,10 @@
       <c r="C2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2">
         <v>7</v>
       </c>
     </row>
@@ -2276,10 +2275,10 @@
       <c r="C3" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3">
         <v>6</v>
       </c>
     </row>
@@ -2293,10 +2292,10 @@
       <c r="C4" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4">
         <v>4</v>
       </c>
     </row>
@@ -2310,10 +2309,10 @@
       <c r="C5" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
@@ -2327,10 +2326,10 @@
       <c r="C6" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6">
         <v>3</v>
       </c>
     </row>
@@ -2344,10 +2343,10 @@
       <c r="C7" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7">
         <v>3</v>
       </c>
     </row>
@@ -2361,10 +2360,10 @@
       <c r="C8" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8">
         <v>2</v>
       </c>
     </row>
@@ -2378,10 +2377,10 @@
       <c r="C9" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9">
         <v>2</v>
       </c>
     </row>
@@ -2395,10 +2394,10 @@
       <c r="C10" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10">
         <v>2</v>
       </c>
     </row>
@@ -2412,10 +2411,10 @@
       <c r="C11" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11">
         <v>1</v>
       </c>
     </row>
@@ -2429,10 +2428,10 @@
       <c r="C12" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12">
         <v>1</v>
       </c>
     </row>
@@ -2449,7 +2448,7 @@
       <c r="G13" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13">
         <v>1</v>
       </c>
     </row>
@@ -2463,10 +2462,10 @@
       <c r="C14" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14">
         <v>1</v>
       </c>
     </row>
@@ -2744,43 +2743,55 @@
     <sortCondition descending="1" ref="H1:H14"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{63DD54EE-C611-4EB8-98DD-D4C5B4386A06}"/>
-    <hyperlink ref="B31" r:id="rId2" xr:uid="{1A81BCEB-AF5B-4DC0-BCB3-A99A9EBF57E3}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{D4BB5EEF-BA14-4398-ABE5-77F32AF36C18}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{2396D77E-3B69-4AFF-8D6E-5CEE8ABD8C30}"/>
-    <hyperlink ref="B21" r:id="rId5" xr:uid="{0F68571E-9AC3-4B7A-A3BC-116C77BFB23D}"/>
-    <hyperlink ref="B36" r:id="rId6" xr:uid="{3E306BEF-55CE-40F2-939B-276D42E5F189}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{86443A30-FCC7-4151-B9ED-DB8B71C83619}"/>
-    <hyperlink ref="B32" r:id="rId8" xr:uid="{8A03482E-27CE-4DFF-830D-6B12A833523E}"/>
-    <hyperlink ref="B28" r:id="rId9" xr:uid="{C1A98D08-BD32-42FB-86E1-0F9C82768108}"/>
-    <hyperlink ref="B34" r:id="rId10" xr:uid="{912A6C40-2AC1-48FD-8C83-961BDAA45693}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{98E65529-27F3-4ABF-B08A-A02B6C71407A}"/>
-    <hyperlink ref="B22" r:id="rId12" xr:uid="{7709B5F6-7E62-4F4C-9FEC-61992D790095}"/>
-    <hyperlink ref="B3" r:id="rId13" xr:uid="{9F1F24FD-A12B-4F0C-8E19-5AD8F45EBE82}"/>
-    <hyperlink ref="B6" r:id="rId14" xr:uid="{747C666B-269B-4992-B9B8-2899E2CCCC89}"/>
-    <hyperlink ref="B29" r:id="rId15" xr:uid="{2FC0700F-452D-4EC9-B6B6-57691FEC5A76}"/>
-    <hyperlink ref="B30" r:id="rId16" xr:uid="{91BBC380-FAC3-41E1-AD3A-061A145FC8D7}"/>
-    <hyperlink ref="B20" r:id="rId17" display="http://emmo.info/emmo/1.0.0-beta5/mereocausalityhttp://emmo.info/emmo/top/annotations" xr:uid="{3F3B3027-1316-40CC-9375-7A7E78BBBFF4}"/>
-    <hyperlink ref="B8" r:id="rId18" xr:uid="{C58670A8-D8F1-477B-9ED8-3C62EEF5C7C1}"/>
-    <hyperlink ref="B4" r:id="rId19" xr:uid="{36464CB9-675A-4986-AFCE-6B09278A406F}"/>
-    <hyperlink ref="B9" r:id="rId20" xr:uid="{843C48E6-E607-4AC9-9DBE-DDACCA167193}"/>
-    <hyperlink ref="B14" r:id="rId21" xr:uid="{2E4F5D43-8AC5-4C9E-9698-95FB2DE9E110}"/>
-    <hyperlink ref="B33" r:id="rId22" xr:uid="{D9836261-9BCC-4903-8288-8305C9C2DC85}"/>
-    <hyperlink ref="B35" r:id="rId23" xr:uid="{1D67F749-9642-4CCB-ABC6-85B837C48B3E}"/>
-    <hyperlink ref="B17" r:id="rId24" xr:uid="{5B0CB606-0F5D-47FF-AA89-5FFF22FB280C}"/>
-    <hyperlink ref="B23" r:id="rId25" xr:uid="{4A68BC3E-10C2-4368-A688-6A8CF4C256C7}"/>
-    <hyperlink ref="B18" r:id="rId26" xr:uid="{0891D03E-4925-49A9-AC70-EDE751310FFB}"/>
-    <hyperlink ref="B37" r:id="rId27" xr:uid="{3DD86986-898C-43EB-925C-59BA5294A81B}"/>
-    <hyperlink ref="B24" r:id="rId28" xr:uid="{7B42A1C3-A967-4368-84DB-A47214450B67}"/>
-    <hyperlink ref="B25" r:id="rId29" xr:uid="{0E6FD8A5-9199-474C-B510-D85A55E7C997}"/>
-    <hyperlink ref="B19" r:id="rId30" xr:uid="{80E6929E-853B-4A8C-9B30-4692432AC232}"/>
-    <hyperlink ref="B26" r:id="rId31" xr:uid="{D6A4B9C8-ED75-4CBA-B91E-9B3EE4D11987}"/>
-    <hyperlink ref="B5" r:id="rId32" xr:uid="{F611E185-DBDB-4AA4-9D7C-26033218AE3D}"/>
-    <hyperlink ref="B27" r:id="rId33" xr:uid="{D65B00FB-B4B4-417A-AA78-743FF791754A}"/>
-    <hyperlink ref="B38" r:id="rId34" xr:uid="{650566F7-51F0-4D86-8C5D-E843694F8710}"/>
-    <hyperlink ref="B10" r:id="rId35" xr:uid="{449C6FFB-7A35-4F0C-950F-89BFFDD915DC}"/>
-    <hyperlink ref="B15" r:id="rId36" xr:uid="{9E9E828F-9956-4FBA-9A31-C105223B264A}"/>
-    <hyperlink ref="B11" r:id="rId37" xr:uid="{F32BAD0E-1ED7-4901-87D5-9FE75660A5CA}"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{1A81BCEB-AF5B-4DC0-BCB3-A99A9EBF57E3}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{D4BB5EEF-BA14-4398-ABE5-77F32AF36C18}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{2396D77E-3B69-4AFF-8D6E-5CEE8ABD8C30}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{0F68571E-9AC3-4B7A-A3BC-116C77BFB23D}"/>
+    <hyperlink ref="B36" r:id="rId5" xr:uid="{3E306BEF-55CE-40F2-939B-276D42E5F189}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{86443A30-FCC7-4151-B9ED-DB8B71C83619}"/>
+    <hyperlink ref="B32" r:id="rId7" xr:uid="{8A03482E-27CE-4DFF-830D-6B12A833523E}"/>
+    <hyperlink ref="B28" r:id="rId8" xr:uid="{C1A98D08-BD32-42FB-86E1-0F9C82768108}"/>
+    <hyperlink ref="B34" r:id="rId9" xr:uid="{912A6C40-2AC1-48FD-8C83-961BDAA45693}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{98E65529-27F3-4ABF-B08A-A02B6C71407A}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{7709B5F6-7E62-4F4C-9FEC-61992D790095}"/>
+    <hyperlink ref="B3" r:id="rId12" xr:uid="{9F1F24FD-A12B-4F0C-8E19-5AD8F45EBE82}"/>
+    <hyperlink ref="B6" r:id="rId13" xr:uid="{747C666B-269B-4992-B9B8-2899E2CCCC89}"/>
+    <hyperlink ref="B29" r:id="rId14" xr:uid="{2FC0700F-452D-4EC9-B6B6-57691FEC5A76}"/>
+    <hyperlink ref="B30" r:id="rId15" xr:uid="{91BBC380-FAC3-41E1-AD3A-061A145FC8D7}"/>
+    <hyperlink ref="B20" r:id="rId16" display="http://emmo.info/emmo/1.0.0-beta5/mereocausalityhttp://emmo.info/emmo/top/annotations" xr:uid="{3F3B3027-1316-40CC-9375-7A7E78BBBFF4}"/>
+    <hyperlink ref="B8" r:id="rId17" xr:uid="{C58670A8-D8F1-477B-9ED8-3C62EEF5C7C1}"/>
+    <hyperlink ref="B4" r:id="rId18" xr:uid="{36464CB9-675A-4986-AFCE-6B09278A406F}"/>
+    <hyperlink ref="B9" r:id="rId19" xr:uid="{843C48E6-E607-4AC9-9DBE-DDACCA167193}"/>
+    <hyperlink ref="B14" r:id="rId20" xr:uid="{2E4F5D43-8AC5-4C9E-9698-95FB2DE9E110}"/>
+    <hyperlink ref="B33" r:id="rId21" xr:uid="{D9836261-9BCC-4903-8288-8305C9C2DC85}"/>
+    <hyperlink ref="B35" r:id="rId22" xr:uid="{1D67F749-9642-4CCB-ABC6-85B837C48B3E}"/>
+    <hyperlink ref="B17" r:id="rId23" xr:uid="{5B0CB606-0F5D-47FF-AA89-5FFF22FB280C}"/>
+    <hyperlink ref="B23" r:id="rId24" xr:uid="{4A68BC3E-10C2-4368-A688-6A8CF4C256C7}"/>
+    <hyperlink ref="B18" r:id="rId25" xr:uid="{0891D03E-4925-49A9-AC70-EDE751310FFB}"/>
+    <hyperlink ref="B37" r:id="rId26" xr:uid="{3DD86986-898C-43EB-925C-59BA5294A81B}"/>
+    <hyperlink ref="B24" r:id="rId27" xr:uid="{7B42A1C3-A967-4368-84DB-A47214450B67}"/>
+    <hyperlink ref="B25" r:id="rId28" xr:uid="{0E6FD8A5-9199-474C-B510-D85A55E7C997}"/>
+    <hyperlink ref="B19" r:id="rId29" xr:uid="{80E6929E-853B-4A8C-9B30-4692432AC232}"/>
+    <hyperlink ref="B26" r:id="rId30" xr:uid="{D6A4B9C8-ED75-4CBA-B91E-9B3EE4D11987}"/>
+    <hyperlink ref="B5" r:id="rId31" xr:uid="{F611E185-DBDB-4AA4-9D7C-26033218AE3D}"/>
+    <hyperlink ref="B27" r:id="rId32" xr:uid="{D65B00FB-B4B4-417A-AA78-743FF791754A}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{650566F7-51F0-4D86-8C5D-E843694F8710}"/>
+    <hyperlink ref="B10" r:id="rId34" xr:uid="{449C6FFB-7A35-4F0C-950F-89BFFDD915DC}"/>
+    <hyperlink ref="B15" r:id="rId35" xr:uid="{9E9E828F-9956-4FBA-9A31-C105223B264A}"/>
+    <hyperlink ref="B11" r:id="rId36" xr:uid="{F32BAD0E-1ED7-4901-87D5-9FE75660A5CA}"/>
+    <hyperlink ref="B16" r:id="rId37" xr:uid="{7F91F54B-7EA2-4116-8B81-17F5F49C788E}"/>
+    <hyperlink ref="G2" r:id="rId38" xr:uid="{61EBB42C-00EC-43A0-B1E0-F2AC80F44F66}"/>
+    <hyperlink ref="G3" r:id="rId39" xr:uid="{D36ED856-5897-474A-AA5D-47ECC0DE7431}"/>
+    <hyperlink ref="G4" r:id="rId40" xr:uid="{DA9852DC-3046-4DE3-9EBA-A9F88DC27B2B}"/>
+    <hyperlink ref="G5" r:id="rId41" xr:uid="{3A60A167-81AF-4BD1-93BF-EEACFFDD6715}"/>
+    <hyperlink ref="G6" r:id="rId42" xr:uid="{6462BDE9-487B-4BC4-AD69-6707BA52762C}"/>
+    <hyperlink ref="G7" r:id="rId43" xr:uid="{C255B15D-2CDB-4A36-94A0-F74CF73412EE}"/>
+    <hyperlink ref="G8" r:id="rId44" xr:uid="{CA8CCBC5-B9EF-4166-9B41-67EC8C98B9E7}"/>
+    <hyperlink ref="G9" r:id="rId45" xr:uid="{FE69A879-357D-4C38-8055-70430D09655A}"/>
+    <hyperlink ref="G10" r:id="rId46" xr:uid="{8FA65526-64E2-43E6-8D76-7B72E1730851}"/>
+    <hyperlink ref="G11" r:id="rId47" xr:uid="{7841931F-5A52-4CFB-AB6C-370ACAEAE666}"/>
+    <hyperlink ref="G12" r:id="rId48" xr:uid="{4D65F44E-0C05-467F-B64E-D13BB815B93B}"/>
+    <hyperlink ref="G14" r:id="rId49" xr:uid="{DBCBAC60-37A5-4991-8CD9-0DEBDB4EC73D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2812,7 +2823,7 @@
       <c r="A4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -2820,7 +2831,7 @@
       <c r="A5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
@@ -2828,7 +2839,7 @@
       <c r="A6" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
@@ -2836,7 +2847,7 @@
       <c r="A7" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
@@ -2844,7 +2855,7 @@
       <c r="A8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>4</v>
       </c>
     </row>
@@ -2852,7 +2863,7 @@
       <c r="A9" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>4</v>
       </c>
     </row>
@@ -2860,7 +2871,7 @@
       <c r="A10" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
@@ -2868,7 +2879,7 @@
       <c r="A11" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>7</v>
       </c>
     </row>
@@ -2876,7 +2887,7 @@
       <c r="A12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>3</v>
       </c>
     </row>
@@ -2884,7 +2895,7 @@
       <c r="A13" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>2</v>
       </c>
     </row>
@@ -2892,7 +2903,7 @@
       <c r="A14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -2900,7 +2911,7 @@
       <c r="A15" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>2</v>
       </c>
     </row>
@@ -2908,7 +2919,7 @@
       <c r="A16" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>3</v>
       </c>
     </row>
@@ -2916,7 +2927,7 @@
       <c r="A17" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>37</v>
       </c>
     </row>
